--- a/target/test-classes/userdata.xlsx
+++ b/target/test-classes/userdata.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automationexcercise\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BFA42E-3287-4185-B072-3CC53AF3CE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B646055-7C72-456F-BE17-8674FB648508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1476" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1476" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationData" sheetId="1" r:id="rId1"/>
+    <sheet name="loginData" sheetId="2" r:id="rId2"/>
+    <sheet name="productData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>username</t>
   </si>
@@ -88,6 +90,12 @@
   </si>
   <si>
     <t>a451@gmail.com</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>shirt</t>
   </si>
 </sst>
 </file>
@@ -418,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,4 +522,70 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8879DE00-A3E2-4915-B827-6C9205CFFA33}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{3F3101ED-5D72-458C-A17A-BC71457931E7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A031E6C5-D2F1-427D-B0C5-407247EA18A2}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>